--- a/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationadministration.xlsx
+++ b/jpcore-r4/feature/swg2-physicalexam/StructureDefinition-jp-medicationadministration.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="517">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2662" uniqueCount="518">
   <si>
     <t>Property</t>
   </si>
@@ -280,7 +280,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -727,6 +727,10 @@
   </si>
   <si>
     <t>MedicationAdministration.medication[x].id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -4557,13 +4561,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4614,7 +4618,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4632,7 +4636,7 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>77</v>
@@ -4646,7 +4650,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4672,10 +4676,10 @@
         <v>131</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>159</v>
@@ -4719,7 +4723,7 @@
         <v>134</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4728,7 +4732,7 @@
         <v>135</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4746,7 +4750,7 @@
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>77</v>
@@ -4760,7 +4764,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4783,19 +4787,19 @@
         <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -4844,7 +4848,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -4862,13 +4866,13 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>77</v>
@@ -4876,7 +4880,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4899,13 +4903,13 @@
         <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4956,7 +4960,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -4974,7 +4978,7 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>77</v>
@@ -4988,7 +4992,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5014,10 +5018,10 @@
         <v>131</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M27" t="s" s="2">
         <v>159</v>
@@ -5061,7 +5065,7 @@
         <v>134</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>77</v>
@@ -5070,7 +5074,7 @@
         <v>135</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5088,7 +5092,7 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>77</v>
@@ -5102,7 +5106,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5128,16 +5132,16 @@
         <v>100</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5186,7 +5190,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5204,13 +5208,13 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>77</v>
@@ -5218,7 +5222,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5241,16 +5245,16 @@
         <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -5300,7 +5304,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5318,13 +5322,13 @@
         <v>77</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>77</v>
@@ -5332,7 +5336,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5358,14 +5362,14 @@
         <v>106</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>77</v>
@@ -5414,7 +5418,7 @@
         <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5432,13 +5436,13 @@
         <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>77</v>
@@ -5446,7 +5450,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -5469,17 +5473,17 @@
         <v>87</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>77</v>
@@ -5528,7 +5532,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5546,13 +5550,13 @@
         <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>77</v>
@@ -5560,7 +5564,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5583,19 +5587,19 @@
         <v>87</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
@@ -5644,7 +5648,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5662,13 +5666,13 @@
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>77</v>
@@ -5676,7 +5680,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5699,19 +5703,19 @@
         <v>87</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5760,7 +5764,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5778,13 +5782,13 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>77</v>
@@ -5795,7 +5799,7 @@
         <v>209</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
@@ -5817,7 +5821,7 @@
         <v>87</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>211</v>
@@ -5908,7 +5912,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5931,16 +5935,16 @@
         <v>87</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5990,7 +5994,7 @@
         <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>86</v>
@@ -6005,16 +6009,16 @@
         <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>77</v>
@@ -6022,7 +6026,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -6045,13 +6049,13 @@
         <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6102,7 +6106,7 @@
         <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>78</v>
@@ -6120,7 +6124,7 @@
         <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>77</v>
@@ -6134,7 +6138,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -6160,10 +6164,10 @@
         <v>131</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>159</v>
@@ -6207,7 +6211,7 @@
         <v>134</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC37" t="s" s="2">
         <v>77</v>
@@ -6216,7 +6220,7 @@
         <v>135</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>78</v>
@@ -6234,7 +6238,7 @@
         <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>77</v>
@@ -6248,7 +6252,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6271,16 +6275,16 @@
         <v>87</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -6330,7 +6334,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>78</v>
@@ -6339,7 +6343,7 @@
         <v>86</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>98</v>
@@ -6362,7 +6366,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6388,13 +6392,13 @@
         <v>100</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -6420,13 +6424,13 @@
         <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>77</v>
@@ -6444,7 +6448,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6476,7 +6480,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6502,13 +6506,13 @@
         <v>163</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6558,7 +6562,7 @@
         <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6576,7 +6580,7 @@
         <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>77</v>
@@ -6590,7 +6594,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6613,16 +6617,16 @@
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6672,7 +6676,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6704,7 +6708,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6727,16 +6731,16 @@
         <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6786,7 +6790,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6801,16 +6805,16 @@
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>77</v>
@@ -6818,7 +6822,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6841,16 +6845,16 @@
         <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6900,7 +6904,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -6918,10 +6922,10 @@
         <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -6932,7 +6936,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6955,16 +6959,16 @@
         <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7014,7 +7018,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>86</v>
@@ -7029,16 +7033,16 @@
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
@@ -7046,7 +7050,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7069,13 +7073,13 @@
         <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7126,7 +7130,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7141,16 +7145,16 @@
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7158,7 +7162,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -7181,13 +7185,13 @@
         <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -7238,7 +7242,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>78</v>
@@ -7256,7 +7260,7 @@
         <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>77</v>
@@ -7270,7 +7274,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7296,10 +7300,10 @@
         <v>131</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>159</v>
@@ -7352,7 +7356,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7370,7 +7374,7 @@
         <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>77</v>
@@ -7384,11 +7388,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -7410,10 +7414,10 @@
         <v>131</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>159</v>
@@ -7468,7 +7472,7 @@
         <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7500,7 +7504,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -7526,10 +7530,10 @@
         <v>193</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7559,10 +7563,10 @@
         <v>197</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>77</v>
@@ -7580,7 +7584,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7595,10 +7599,10 @@
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>77</v>
@@ -7612,7 +7616,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7635,13 +7639,13 @@
         <v>87</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7692,7 +7696,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>86</v>
@@ -7707,10 +7711,10 @@
         <v>98</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>77</v>
@@ -7724,7 +7728,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7750,10 +7754,10 @@
         <v>193</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7783,10 +7787,10 @@
         <v>197</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7804,7 +7808,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7819,16 +7823,16 @@
         <v>98</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -7836,7 +7840,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7859,16 +7863,16 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7918,7 +7922,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -7933,24 +7937,24 @@
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7973,19 +7977,19 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>77</v>
@@ -8034,7 +8038,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8049,16 +8053,16 @@
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8066,7 +8070,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8089,16 +8093,16 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -8148,7 +8152,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8166,13 +8170,13 @@
         <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>77</v>
@@ -8180,7 +8184,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8203,16 +8207,16 @@
         <v>77</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8262,7 +8266,7 @@
         <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8277,10 +8281,10 @@
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>77</v>
@@ -8294,7 +8298,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8317,13 +8321,13 @@
         <v>77</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -8374,7 +8378,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8386,13 +8390,13 @@
         <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>77</v>
@@ -8406,7 +8410,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8429,13 +8433,13 @@
         <v>77</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8486,7 +8490,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8504,7 +8508,7 @@
         <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>77</v>
@@ -8518,7 +8522,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8544,10 +8548,10 @@
         <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>159</v>
@@ -8600,7 +8604,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8618,7 +8622,7 @@
         <v>77</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>77</v>
@@ -8632,11 +8636,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
@@ -8658,10 +8662,10 @@
         <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M59" t="s" s="2">
         <v>159</v>
@@ -8716,7 +8720,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8748,7 +8752,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8771,13 +8775,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8828,7 +8832,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -8846,7 +8850,7 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>77</v>
@@ -8860,7 +8864,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8886,13 +8890,13 @@
         <v>193</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8921,10 +8925,10 @@
         <v>197</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>77</v>
@@ -8942,7 +8946,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -8960,13 +8964,13 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>77</v>
@@ -8974,7 +8978,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9000,10 +9004,10 @@
         <v>193</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M62" t="s" s="2">
         <v>196</v>
@@ -9035,10 +9039,10 @@
         <v>197</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9056,7 +9060,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9074,13 +9078,13 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>77</v>
@@ -9088,7 +9092,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9114,13 +9118,13 @@
         <v>193</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -9149,10 +9153,10 @@
         <v>197</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9170,7 +9174,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9188,13 +9192,13 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>77</v>
@@ -9202,7 +9206,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9225,16 +9229,16 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -9284,7 +9288,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9302,13 +9306,13 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>77</v>
@@ -9316,7 +9320,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9339,13 +9343,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9396,7 +9400,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9414,7 +9418,7 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>77</v>
@@ -9428,7 +9432,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9454,10 +9458,10 @@
         <v>131</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M66" t="s" s="2">
         <v>159</v>
@@ -9501,7 +9505,7 @@
         <v>134</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AC66" t="s" s="2">
         <v>77</v>
@@ -9510,7 +9514,7 @@
         <v>135</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9528,7 +9532,7 @@
         <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>77</v>
@@ -9542,7 +9546,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9565,19 +9569,19 @@
         <v>87</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9626,7 +9630,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9644,13 +9648,13 @@
         <v>77</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>77</v>
@@ -9658,7 +9662,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9684,20 +9688,20 @@
         <v>106</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P68" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="Q68" t="s" s="2">
         <v>77</v>
@@ -9721,10 +9725,10 @@
         <v>185</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>77</v>
@@ -9742,7 +9746,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9760,13 +9764,13 @@
         <v>77</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>77</v>
@@ -9774,7 +9778,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -9797,17 +9801,17 @@
         <v>87</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>88</v>
+        <v>226</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>77</v>
@@ -9856,7 +9860,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -9874,13 +9878,13 @@
         <v>77</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>77</v>
@@ -9888,7 +9892,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9914,14 +9918,14 @@
         <v>100</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -9970,7 +9974,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -9979,7 +9983,7 @@
         <v>86</v>
       </c>
       <c r="AH70" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AI70" t="s" s="2">
         <v>98</v>
@@ -9988,13 +9992,13 @@
         <v>77</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
@@ -10002,7 +10006,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -10028,16 +10032,16 @@
         <v>106</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10066,7 +10070,7 @@
       </c>
       <c r="X71" s="2"/>
       <c r="Y71" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>77</v>
@@ -10084,7 +10088,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>78</v>
@@ -10102,13 +10106,13 @@
         <v>77</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10116,7 +10120,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10139,16 +10143,16 @@
         <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10198,7 +10202,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10216,13 +10220,13 @@
         <v>77</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>77</v>
@@ -10230,7 +10234,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10253,16 +10257,16 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -10312,7 +10316,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10330,7 +10334,7 @@
         <v>77</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>77</v>
